--- a/Users/Spidyy/resources/Spidyy_data.xlsx
+++ b/Users/Spidyy/resources/Spidyy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\Portfolio value over time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\python programs\MYPORTFOLIOAPP\Users\Spidyy\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF0FC0C-FE21-49E0-AE66-C6A6071B0B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5A3C4-FCB1-46F6-BB43-48147EBE2D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="9" r:id="rId1"/>
@@ -22,11 +22,21 @@
     <customWorkbookView name="Categories" guid="{053398AB-8FC7-4C05-A8D6-712A6F4D123F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{BDEB0D76-2C4F-4B26-B023-12FB9F4B9663}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>QTY</t>
   </si>
@@ -143,6 +153,12 @@
   </si>
   <si>
     <t>SBICARD</t>
+  </si>
+  <si>
+    <t>Adani Wilmar</t>
+  </si>
+  <si>
+    <t>AWL.NS</t>
   </si>
 </sst>
 </file>
@@ -211,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -294,11 +310,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -349,6 +387,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -569,7 +617,7 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -624,7 +672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -857,10 +905,11 @@
         <v>900</v>
       </c>
       <c r="F8" s="13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G8" s="19">
-        <v>14400</v>
+        <f>E8*F8</f>
+        <v>7200</v>
       </c>
       <c r="H8" s="13">
         <v>1057</v>
@@ -949,12 +998,28 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="A11" s="20">
+        <v>9</v>
+      </c>
+      <c r="B11" s="21">
+        <v>44601</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="23">
+        <v>230</v>
+      </c>
+      <c r="F11" s="23">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <f>E11*F11</f>
+        <v>14950</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1020,582 +1085,54 @@
       <c r="J16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-      <c r="J63"/>
-      <c r="K63"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
-      <c r="K64"/>
-    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65"/>
       <c r="C65"/>
@@ -1791,30 +1328,8 @@
       <c r="J80"/>
       <c r="K80"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-    </row>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
